--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApp-TopWallpapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC7BD9-1142-47AC-BB05-51529E4C50A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5199E3-0826-46CA-B03B-9A2C52F61C59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="2532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="2557">
   <si>
     <t>Headers</t>
   </si>
@@ -7626,6 +7626,81 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/C25/TH/203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TopWallpapers/master/MenuIcons/25.png</t>
   </si>
 </sst>
 </file>
@@ -8024,7 +8099,7 @@
   <dimension ref="A1:AY221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8241,6 +8316,9 @@
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B2" t="s">
+        <v>2532</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -8321,6 +8399,9 @@
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B3" t="s">
+        <v>2533</v>
+      </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -8401,6 +8482,9 @@
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B4" t="s">
+        <v>2534</v>
+      </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
@@ -8481,6 +8565,9 @@
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B5" t="s">
+        <v>2535</v>
+      </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -8561,6 +8648,9 @@
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B6" t="s">
+        <v>2536</v>
+      </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
@@ -8641,6 +8731,9 @@
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B7" t="s">
+        <v>2537</v>
+      </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -8721,6 +8814,9 @@
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B8" t="s">
+        <v>2538</v>
+      </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -8801,6 +8897,9 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B9" t="s">
+        <v>2539</v>
+      </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
@@ -8881,6 +8980,9 @@
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B10" t="s">
+        <v>2540</v>
+      </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
@@ -8961,6 +9063,9 @@
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B11" t="s">
+        <v>2541</v>
+      </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -9041,6 +9146,9 @@
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B12" t="s">
+        <v>2542</v>
+      </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
@@ -9121,6 +9229,9 @@
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B13" t="s">
+        <v>2543</v>
+      </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
@@ -9201,6 +9312,9 @@
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B14" t="s">
+        <v>2544</v>
+      </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -9279,7 +9393,10 @@
     </row>
     <row r="15" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2546</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -9356,7 +9473,10 @@
     </row>
     <row r="16" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2547</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -9433,7 +9553,10 @@
     </row>
     <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2548</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -9507,7 +9630,10 @@
     </row>
     <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2549</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -9581,7 +9707,10 @@
     </row>
     <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2550</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -9655,7 +9784,10 @@
     </row>
     <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2551</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -9729,7 +9861,10 @@
     </row>
     <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2552</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -9803,7 +9938,10 @@
     </row>
     <row r="22" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2553</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -9877,7 +10015,10 @@
     </row>
     <row r="23" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2554</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -9951,7 +10092,10 @@
     </row>
     <row r="24" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2555</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -10025,7 +10169,10 @@
     </row>
     <row r="25" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2556</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -10098,12 +10245,6 @@
       </c>
     </row>
     <row r="26" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
       <c r="D26" s="6" t="s">
         <v>101</v>
       </c>
